--- a/P4_01_Analyse.xlsx
+++ b/P4_01_Analyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VnZnX\Desktop\Info\P4_Galpin_Vincent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F500349-BD88-4F0B-AD40-244311CC5ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{782CADAE-0A17-4DD3-B88F-D95AD68B5AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -286,12 +286,6 @@
     <t>Au clic de l'internaute sur l'adresse de l'entreprise ouvre google map à la bonne adresse</t>
   </si>
   <si>
-    <t>Navigation clavier</t>
-  </si>
-  <si>
-    <t>Ajouter une navigation grace au clavier avec Tab et Maj + Tab</t>
-  </si>
-  <si>
     <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941406-rendez-les-interactions-sur-le-site-accessibles</t>
   </si>
   <si>
@@ -299,6 +293,12 @@
   </si>
   <si>
     <t>Rendre le site plus compréhensible pour les lecteurs d'écrans</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Ajouter un visuel focus pour voir où on est sur le site en naviguant avec le clavier</t>
   </si>
 </sst>
 </file>
@@ -470,13 +470,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -738,7 +738,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C26" sqref="C26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -746,7 +746,7 @@
     <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.77734375" customWidth="1"/>
     <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="113.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
@@ -806,7 +806,7 @@
       <c r="D3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -824,7 +824,7 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -842,7 +842,7 @@
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -894,7 +894,7 @@
       <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -944,7 +944,7 @@
       <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -962,7 +962,7 @@
       <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -970,13 +970,13 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E14" s="6"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
@@ -992,7 +992,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>14</v>
@@ -1041,8 +1041,8 @@
       <c r="D19" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>85</v>
+      <c r="E19" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>68</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:26" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
@@ -1136,34 +1136,34 @@
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="6"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="6"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="6"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="6"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="7"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="7"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
